--- a/development/07-connections/M1 M2.xlsx
+++ b/development/07-connections/M1 M2.xlsx
@@ -511,21 +511,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,6 +528,21 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -875,7 +875,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,36 +893,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="H1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="23">
         <v>5</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="23"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -947,8 +947,8 @@
       <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="17"/>
@@ -975,10 +975,10 @@
       <c r="J4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="29"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="17"/>
@@ -1191,22 +1191,22 @@
         <v>10</v>
       </c>
       <c r="K9" s="14">
-        <v>7.5</v>
+        <v>22</v>
       </c>
       <c r="L9" s="11">
         <f t="shared" ref="L9:L10" si="6">(I9+I10)*J9*K9/2</f>
-        <v>4.1567966472303208</v>
+        <v>7.349368318756075</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="3"/>
-        <v>6.927994412050535</v>
+        <v>12.248947197926793</v>
       </c>
       <c r="N9" s="14">
         <v>15.43</v>
       </c>
       <c r="O9">
         <f t="shared" si="4"/>
-        <v>0.44899510123464259</v>
+        <v>0.79383974063038187</v>
       </c>
       <c r="P9" s="20" t="str">
         <f t="shared" si="0"/>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
-        <v>18.031280540917411</v>
+        <v>12.924821120745307</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1238,58 +1238,58 @@
       <c r="F10" s="21"/>
       <c r="H10" s="11">
         <f t="shared" si="5"/>
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="2"/>
-        <v>4.40354713313897E-2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K10" s="14">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="L10" s="11">
         <f t="shared" si="6"/>
-        <v>3.1925716715257533</v>
+        <v>0</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="3"/>
-        <v>5.3209527858762558</v>
+        <v>0</v>
       </c>
       <c r="N10" s="14">
-        <v>15.43</v>
-      </c>
-      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="e">
         <f t="shared" si="4"/>
-        <v>0.34484463939573917</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P10" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>pass</v>
+        <v>not safe</v>
       </c>
       <c r="Q10" s="14">
         <v>4</v>
       </c>
       <c r="R10" s="14">
-        <v>6.17</v>
-      </c>
-      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="e">
         <f t="shared" si="1"/>
-        <v>19.573540579827892</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="32">
         <f>(  0.5  -   (  B3 * POWER(B7,4)  )  / (  30 * B4 * POWER(B5, 2)  * B6)   )   /   (  ( 3*B4 / (4*B5) ) * (B4 / ( 4 * B5 ) + 1 )  +  (  B3 * POWER(B7,4)  )  / (  30 * B4 * POWER(B5, 2)  * B6))</f>
         <v>0.31295900468011906</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="H11" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K11" s="14">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K12" s="14">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K13" s="14">
         <v>0</v>
@@ -1481,39 +1481,39 @@
       <c r="D17" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="J19" s="30" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="J19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30">
-        <f>SUM(S7:S10)</f>
-        <v>75.302539131313111</v>
-      </c>
-      <c r="M19" s="31" t="s">
+      <c r="K19" s="25"/>
+      <c r="L19" s="25">
+        <f>SUM(S7:S9)</f>
+        <v>50.622539131313111</v>
+      </c>
+      <c r="M19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="22" t="str">
+      <c r="N19" s="28" t="str">
         <f>IF(L19&gt;I1,"pass","not safe")</f>
         <v>pass</v>
       </c>
       <c r="O19" s="20"/>
     </row>
     <row r="20" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="22"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="28"/>
       <c r="O20" s="20"/>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -1527,11 +1527,11 @@
         <v>43</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="22"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="28"/>
       <c r="O21" s="20"/>
     </row>
     <row r="22" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1546,15 +1546,15 @@
         <v>43</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="27">
+      <c r="K22" s="27"/>
+      <c r="L22" s="22">
         <f>B33</f>
-        <v>0.8</v>
-      </c>
-      <c r="M22" s="29" t="s">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M22" s="24" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1570,10 +1570,10 @@
         <v>47</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="29"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
@@ -1587,15 +1587,15 @@
         <v>19</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27">
+      <c r="K24" s="22"/>
+      <c r="L24" s="22">
         <f>B30</f>
-        <v>1</v>
-      </c>
-      <c r="M24" s="29" t="s">
+        <v>0.4</v>
+      </c>
+      <c r="M24" s="24" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1610,10 +1610,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="29"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
@@ -1669,7 +1669,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="14">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
@@ -1707,7 +1707,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="14">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>5</v>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B34" s="11">
         <f>POWER(B29,3)*B30/6+B31*B33*2*POWER(B27/2+B26, 2)+B33*B32*2*POWER(B27/2,2)</f>
-        <v>89766.666666666672</v>
+        <v>91723.466666666674</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>42</v>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B35" s="11">
         <f>B24*100*(B27/2+B33)/B34</f>
-        <v>1.0293353137764574</v>
+        <v>1.0171878952096591</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>43</v>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B36" s="11">
         <f>B24*100*(B27/2)/B34</f>
-        <v>1.0025993316004456</v>
+        <v>0.9812101883051374</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>43</v>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B37" s="11">
         <f>B23/(2*B30*B29)</f>
-        <v>4.3103448275862072E-2</v>
+        <v>0.10775862068965517</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>43</v>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B38" s="11">
         <f>POWER(3*POWER(B37,2)+POWER(B36,2),0.5)</f>
-        <v>1.0053751247596441</v>
+        <v>0.99880388196713277</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>43</v>
@@ -1794,6 +1794,13 @@
     <row r="39" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A19:D20"/>
     <mergeCell ref="J24:K25"/>
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="I1:I2"/>
@@ -1805,13 +1812,6 @@
     <mergeCell ref="J22:K23"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K1:L3"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A19:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/development/07-connections/M1 M2.xlsx
+++ b/development/07-connections/M1 M2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>w</t>
   </si>
@@ -228,12 +228,18 @@
   <si>
     <t>ratio</t>
   </si>
+  <si>
+    <t>bolt Diam.</t>
+  </si>
+  <si>
+    <t>bolt yield stress</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +401,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -454,7 +476,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -504,13 +526,28 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -571,19 +608,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>815598</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>15618</xdr:rowOff>
+      <xdr:colOff>655543</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>137527</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -596,8 +633,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5097780" y="4937760"/>
-          <a:ext cx="2979678" cy="4359018"/>
+          <a:off x="5349240" y="4335780"/>
+          <a:ext cx="2568163" cy="4237087"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -872,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,39 +929,39 @@
     <col min="14" max="15" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="H1" s="31" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="H1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="23">
+      <c r="I1" s="28">
         <v>5</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="29"/>
-    </row>
-    <row r="2" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-    </row>
-    <row r="3" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L1" s="34"/>
+    </row>
+    <row r="2" spans="1:20" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="1:20" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -947,13 +984,19 @@
       <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="17"/>
-    </row>
-    <row r="4" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="21">
+        <v>9</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -975,15 +1018,15 @@
       <c r="J4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="29"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1005,7 +1048,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1030,32 +1073,35 @@
       <c r="K6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="Q6" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="R6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="S6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="T6" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1089,35 +1135,40 @@
         <f>L7/0.6</f>
         <v>21.100330012957563</v>
       </c>
-      <c r="N7" s="14">
-        <v>23</v>
-      </c>
-      <c r="O7">
-        <f>M7/N7</f>
-        <v>0.91740565273728536</v>
-      </c>
-      <c r="P7" s="20" t="str">
-        <f t="shared" ref="P7:P13" si="0">IF(M7&lt;N7, "pass", "not safe")</f>
+      <c r="N7" s="25">
+        <v>24</v>
+      </c>
+      <c r="O7" s="16">
+        <f>PI()*N7*N7*0.01*0.25*0.7*0.78*$N$3</f>
+        <v>22.230412271625948</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P13" si="0">M7/O7</f>
+        <v>0.94916503369976735</v>
+      </c>
+      <c r="Q7" s="22" t="str">
+        <f t="shared" ref="Q7:Q13" si="1">IF(M7&lt;O7, "pass", "not safe")</f>
         <v>pass</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="R7" s="14">
         <v>6</v>
       </c>
-      <c r="R7" s="14">
-        <v>7.63</v>
-      </c>
-      <c r="S7">
-        <f t="shared" ref="S7:S13" si="1">Q7*R7*(1-L7/N7)</f>
-        <v>20.580701530612245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S7" s="16">
+        <f>0.5*O7/1.25</f>
+        <v>8.8921649086503791</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ref="T7:T13" si="2">R7*S7*(1-L7/O7)</f>
+        <v>22.968514233243386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="18">
         <f>N7</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -1128,7 +1179,7 @@
         <v>305</v>
       </c>
       <c r="I8" s="16">
-        <f t="shared" ref="I8:I13" si="2">$I$3*100000*H8/$I$4</f>
+        <f t="shared" ref="I8:I13" si="3">$I$3*100000*H8/$I$4</f>
         <v>9.2626336248785232E-2</v>
       </c>
       <c r="J8" s="14">
@@ -1142,32 +1193,37 @@
         <v>6.7761479591836729</v>
       </c>
       <c r="M8" s="11">
-        <f t="shared" ref="M8:M13" si="3">L8/0.6</f>
+        <f t="shared" ref="M8:M13" si="4">L8/0.6</f>
         <v>11.293579931972788</v>
       </c>
-      <c r="N8" s="14">
-        <v>15.43</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ref="O8:O13" si="4">M8/N8</f>
-        <v>0.73192352119071857</v>
-      </c>
-      <c r="P8" s="20" t="str">
+      <c r="N8" s="25">
+        <v>20</v>
+      </c>
+      <c r="O8" s="16">
+        <f t="shared" ref="O8:O13" si="5">PI()*N8*N8*0.01*0.25*0.7*0.78*$N$3</f>
+        <v>15.437786299740244</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="0"/>
+        <v>0.731554363604762</v>
+      </c>
+      <c r="Q8" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>pass</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="R8" s="14">
         <v>4</v>
       </c>
-      <c r="R8" s="14">
-        <v>7.63</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="1"/>
-        <v>17.117016479955559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S8" s="16">
+        <f t="shared" ref="S8:S13" si="6">0.5*O8/1.25</f>
+        <v>6.1751145198960975</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>13.858621344890514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1180,11 +1236,11 @@
       </c>
       <c r="D9" s="6"/>
       <c r="H9" s="11">
-        <f t="shared" ref="H9:H13" si="5">H8-10*K8</f>
+        <f t="shared" ref="H9:H13" si="7">H8-10*K8</f>
         <v>220</v>
       </c>
       <c r="I9" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.681243926141886E-2</v>
       </c>
       <c r="J9" s="14">
@@ -1194,36 +1250,41 @@
         <v>22</v>
       </c>
       <c r="L9" s="11">
-        <f t="shared" ref="L9:L10" si="6">(I9+I10)*J9*K9/2</f>
+        <f t="shared" ref="L9:L10" si="8">(I9+I10)*J9*K9/2</f>
         <v>7.349368318756075</v>
       </c>
       <c r="M9" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.248947197926793</v>
       </c>
-      <c r="N9" s="14">
-        <v>15.43</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="4"/>
-        <v>0.79383974063038187</v>
-      </c>
-      <c r="P9" s="20" t="str">
+      <c r="N9" s="25">
+        <v>20</v>
+      </c>
+      <c r="O9" s="16">
+        <f t="shared" si="5"/>
+        <v>15.437786299740244</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="0"/>
+        <v>0.79343935458757409</v>
+      </c>
+      <c r="Q9" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>pass</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="R9" s="14">
         <v>4</v>
       </c>
-      <c r="R9" s="14">
-        <v>6.17</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="1"/>
-        <v>12.924821120745307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S9" s="16">
+        <f t="shared" si="6"/>
+        <v>6.1751145198960975</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>12.941468769574671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1235,106 +1296,116 @@
         <v>9</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="20"/>
       <c r="H10" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="25">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I10" s="16">
+      <c r="P10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>not safe</v>
+      </c>
+      <c r="R10" s="14">
+        <v>4</v>
+      </c>
+      <c r="S10" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T10" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-      <c r="O10" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P10" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>not safe</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>4</v>
-      </c>
-      <c r="R10" s="14">
-        <v>0</v>
-      </c>
-      <c r="S10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:20" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="37">
         <f>(  0.5  -   (  B3 * POWER(B7,4)  )  / (  30 * B4 * POWER(B5, 2)  * B6)   )   /   (  ( 3*B4 / (4*B5) ) * (B4 / ( 4 * B5 ) + 1 )  +  (  B3 * POWER(B7,4)  )  / (  30 * B4 * POWER(B5, 2)  * B6))</f>
         <v>0.31295900468011906</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="H11" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" ref="L11:L13" si="9">AVERAGE(I11:I12)*J11*K11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="25">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I11" s="16">
+      <c r="P11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>not safe</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T11" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <f t="shared" ref="L11:L13" si="7">AVERAGE(I11:I12)*J11*K11</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P11" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>not safe</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="11">
-        <v>0</v>
-      </c>
-      <c r="S11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:20" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1347,50 +1418,55 @@
       </c>
       <c r="D12" s="3"/>
       <c r="H12" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="25">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I12" s="16">
+      <c r="P12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>not safe</v>
+      </c>
+      <c r="R12" s="11">
+        <v>0</v>
+      </c>
+      <c r="S12" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T12" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0</v>
-      </c>
-      <c r="K12" s="14">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-      <c r="O12" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>not safe</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>0</v>
-      </c>
-      <c r="R12" s="11">
-        <v>0</v>
-      </c>
-      <c r="S12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:20" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1406,50 +1482,55 @@
         <v>pass</v>
       </c>
       <c r="H13" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="25">
+        <v>0</v>
+      </c>
+      <c r="O13" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I13" s="16">
+      <c r="P13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>not safe</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T13" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-      <c r="O13" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P13" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>not safe</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <v>0</v>
-      </c>
-      <c r="S13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:20" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1465,12 +1546,12 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1481,40 +1562,40 @@
       <c r="D17" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="J19" s="25" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="J19" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25">
+      <c r="K19" s="30"/>
+      <c r="L19" s="30">
         <f>SUM(S7:S9)</f>
-        <v>50.622539131313111</v>
-      </c>
-      <c r="M19" s="26" t="s">
+        <v>21.242393948442576</v>
+      </c>
+      <c r="M19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="28" t="str">
+      <c r="N19" s="33" t="str">
         <f>IF(L19&gt;I1,"pass","not safe")</f>
         <v>pass</v>
       </c>
-      <c r="O19" s="20"/>
+      <c r="O19" s="19"/>
     </row>
     <row r="20" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="20"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="19"/>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
@@ -1527,12 +1608,12 @@
         <v>43</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="20"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="19"/>
     </row>
     <row r="22" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -1546,15 +1627,15 @@
         <v>43</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="22">
+      <c r="K22" s="32"/>
+      <c r="L22" s="27">
         <f>B33</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="M22" s="29" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1570,10 +1651,10 @@
         <v>47</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="24"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
@@ -1587,15 +1668,15 @@
         <v>19</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22">
+      <c r="K24" s="27"/>
+      <c r="L24" s="27">
         <f>B30</f>
         <v>0.4</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="M24" s="29" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1610,10 +1691,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="24"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:15" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
